--- a/SMO/TemplateExcel/BM_2107.xlsx
+++ b/SMO/TemplateExcel/BM_2107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2Sprojsct\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747BBD2C-D980-483E-8C55-2D62E9FF3AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A30CAB-D0C3-437D-8C5E-63B27634F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9E22AB0-3E27-4771-832B-B2D63B87D9BF}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E22AB0-3E27-4771-832B-B2D63B87D9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,7 +222,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -642,13 +641,13 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
@@ -747,14 +746,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
